--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401737.055331638</v>
+        <v>2394720.040439927</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>156.7219365231167</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>341.2578399936063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>26.26583888007716</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.4837616268615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240.9966544369582</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>395.8935665691962</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.22084658737597</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>405.3633998272709</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>114.5577457233305</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>58.97572708696888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>28.51033041214349</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274051</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174.2751359584763</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>75.56679647172398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>89.75370286975786</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>138.9281674874321</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>135.7789877804225</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>258.7989344143171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.193684393252548</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>100.2110065106331</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>192.8360555678544</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>28.56876306769565</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>216.3943965412046</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>104.3517462601964</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>37.03952420896927</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>76.79694693194</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.52340192158755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>19.18438355223223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>783.6777523140745</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.778685247039</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943678</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.515907621104</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>63.25696827225937</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.990120852571</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>1280.02760391216</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7619053054091</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7619053054091</v>
+        <v>477.3243655052796</v>
       </c>
       <c r="F8" t="n">
-        <v>510.7760005158015</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>496.8525964543924</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>169.6578764903953</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916693</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>2035.589960916693</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>263.631062734689</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>263.631062734689</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,22 +5026,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623273</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>905.1671280158234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>905.1671280158234</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>856.9065713832073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>856.9065713832073</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.9065713832073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.9302197295768</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C19" t="n">
-        <v>337.9940368016699</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D19" t="n">
-        <v>187.8773973893342</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>187.8773973893342</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8773973893342</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>187.8773973893342</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,13 +5682,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033467</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W19" t="n">
-        <v>909.3712637033467</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X19" t="n">
-        <v>909.3712637033467</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.5786845598166</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845919</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.397748747283</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4093.273485435009</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C22" t="n">
-        <v>3924.337302507102</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D22" t="n">
-        <v>3774.220663094766</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094766</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4723.704080306796</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>4723.704080306796</v>
+        <v>702.722676759819</v>
       </c>
       <c r="V22" t="n">
-        <v>4723.704080306796</v>
+        <v>702.722676759819</v>
       </c>
       <c r="W22" t="n">
-        <v>4723.704080306796</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="X22" t="n">
-        <v>4495.714529408779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4274.921950265249</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>251.3864319045502</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>251.3864319045502</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>103.4733383221571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>103.4733383221571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324571</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>972.2646934632137</v>
+        <v>754.894602230607</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>754.894602230607</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>604.7779628182712</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>456.8648692358781</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>309.9749217379677</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>309.9749217379677</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119728</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.057272606744</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X28" t="n">
-        <v>1193.057272606744</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y28" t="n">
-        <v>972.2646934632137</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,22 +6466,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6545,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.900558318119</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>272.964375390212</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>272.964375390212</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>272.964375390212</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>126.0744278923017</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1280.336072031433</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1280.336072031433</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X31" t="n">
-        <v>441.900558318119</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4073.011257337221</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C34" t="n">
-        <v>3904.075074409314</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D34" t="n">
-        <v>3753.958434996978</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414585</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1393.510466254674</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="T34" t="n">
-        <v>4703.441852209007</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="U34" t="n">
-        <v>4703.441852209007</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="V34" t="n">
-        <v>4703.441852209007</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="W34" t="n">
-        <v>4703.441852209007</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X34" t="n">
-        <v>4475.45230131099</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y34" t="n">
-        <v>4254.65972216746</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7031,7 +7031,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>302.8060739576059</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293931</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>933.2366688293931</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>705.2471179313758</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>484.4545387878456</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>321.6797126268225</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>503.3281774570622</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>503.3281774570622</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>306.3284467737876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>553.0935746802517</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4525.994054365623</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4271.309566159736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>4271.309566159736</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>4271.309566159736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4241.487948057123</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>966.6240513566914</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>20.63789864135529</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>104.8749102765755</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627467</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>308.1251096272042</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>38.86002301949986</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.64859338270662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>18.73797368291349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>403.7628319612156</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.556844223460985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>210.956201864867</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>59.16012549777827</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>147.3091849111453</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>85.76857327796674</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>27.43841798426024</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>160.299884070125</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>48.70282185690303</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>93.6869427687366</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>137.9248053956819</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>69.84295585737274</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>5.612606143596395</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.70896746115704</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>130.2072968896586</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>90.44987416668783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.0612514305072</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>267.3386147843588</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="12">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
@@ -26325,37 +26325,37 @@
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196775</v>
       </c>
       <c r="L2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="M2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26447,10 +26447,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230234</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481753</v>
+        <v>-252062.4514481755</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663691</v>
+        <v>337905.4277663693</v>
       </c>
       <c r="D6" t="n">
         <v>337905.4277663691</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823686</v>
+        <v>-80433.36261795886</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="H6" t="n">
-        <v>445701.2651186591</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589377</v>
       </c>
       <c r="J6" t="n">
-        <v>269278.0459260658</v>
+        <v>268303.4546663444</v>
       </c>
       <c r="K6" t="n">
-        <v>445701.2651186585</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="L6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="M6" t="n">
-        <v>310900.249884822</v>
+        <v>309925.6586251002</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.2651186589</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186588</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.2651186588</v>
+        <v>444726.6738589376</v>
       </c>
     </row>
   </sheetData>
@@ -26743,31 +26743,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>250.1541092185948</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.98009866244729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>120.168123766492</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.10089172523328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7371872265224</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10.98247917251524</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>216.4888088016612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.512645914440498</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>37.37357052153075</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.271094011659</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>127.6605584296517</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>227.7313135728799</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>438.0694836745882</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>515.2185245587287</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349858</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>321.2237252606079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.2240319706459</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>441.2361441450411</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>169.3134122708527</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>736.9574053592285</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2394720.040439927</v>
+        <v>2399659.30328896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>156.7219365231167</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>146.4340874029168</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>26.26583888007716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>395.8935665691962</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>331.5933001006561</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>67.48148437503433</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>405.3633998272709</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.054188594251</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295497</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>28.51033041214349</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.312945786385526</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9648301743507</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.9281674874321</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>258.7989344143171</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>139.7568420184989</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2110065106331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>216.3943965412046</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>104.3517462601964</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.1203916976713</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1152.640269254486</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>783.6777523140745</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>783.6777523140745</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>783.6777523140745</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>2494.20718194981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>2494.20718194981</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.812828570805</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D5" t="n">
-        <v>853.5471299640544</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E5" t="n">
-        <v>467.7588773658102</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>388.8857091947645</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>688.885551920185</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>519.9493689922781</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>122.1060973507022</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>122.1060973507022</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035238</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035238</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>477.3243655052796</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2276.999289020209</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2276.999289020209</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>1945.936401676639</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1593.167746406525</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1219.701988145445</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>829.562656169633</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>325.687940232665</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>156.7517573047581</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798412</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>82.74129536798412</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629048</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>569.7858139763533</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>419.6691745640176</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,10 +5281,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,10 +5512,10 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.358329063101</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>563.4221461351941</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.799373036871</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.799373036871</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.799373036871</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>1134.799373036871</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y19" t="n">
-        <v>914.0067938933407</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>702.722676759819</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V22" t="n">
-        <v>702.722676759819</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W22" t="n">
-        <v>413.3055067228584</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X22" t="n">
-        <v>413.3055067228584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.3055067228584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>604.7779628182712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>456.8648692358781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>309.9749217379677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>309.9749217379677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>754.894602230607</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>754.894602230607</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6457,22 +6457,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U31" t="n">
-        <v>1280.336072031433</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.336072031433</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W31" t="n">
-        <v>990.9189019944725</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X31" t="n">
-        <v>762.9293510964552</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>542.1367719529251</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1393.510466254674</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1193.590456170226</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T34" t="n">
-        <v>1193.590456170226</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U34" t="n">
-        <v>1193.590456170226</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1193.590456170226</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1193.590456170226</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>965.6009052722087</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.8083261286786</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>496.665036439558</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7602,13 +7602,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783507</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>139.1210168601837</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>7.280234771565489</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>18.86715000758659</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>147.3091849111453</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>27.43841798426024</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>85.95281337053828</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>48.70282185690303</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.84295585737274</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.612606143596395</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>30.37317676570626</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="12">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196781</v>
@@ -26331,22 +26331,22 @@
         <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196778</v>
@@ -26355,7 +26355,7 @@
         <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26432,7 +26432,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26441,19 +26441,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481755</v>
+        <v>-252062.4514481752</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663693</v>
+        <v>337905.4277663691</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663691</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="E6" t="n">
-        <v>-80433.36261795886</v>
+        <v>-79556.23048420867</v>
       </c>
       <c r="F6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="G6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926867</v>
       </c>
       <c r="H6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="I6" t="n">
-        <v>444726.6738589377</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="J6" t="n">
-        <v>268303.4546663444</v>
+        <v>269180.5868000939</v>
       </c>
       <c r="K6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="L6" t="n">
-        <v>444726.6738589372</v>
+        <v>445603.8059926869</v>
       </c>
       <c r="M6" t="n">
-        <v>309925.6586251002</v>
+        <v>310802.7907588496</v>
       </c>
       <c r="N6" t="n">
-        <v>444726.6738589371</v>
+        <v>445603.8059926866</v>
       </c>
       <c r="O6" t="n">
-        <v>444726.6738589372</v>
+        <v>445603.8059926867</v>
       </c>
       <c r="P6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926867</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,13 +26755,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>250.1541092185948</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>27.98162540605469</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.168123766492</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>10.98247917251524</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>82.19086992013894</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>99.82831788401658</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.512645914440498</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>29.39413176340682</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28016,25 +28016,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866266</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>127.6605584296517</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262111</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,13 +35737,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>567.6062243483298</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
